--- a/data/steel/factories/IBF_factory-LC.xlsx
+++ b/data/steel/factories/IBF_factory-LC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936C8F98-0043-E54B-B867-5B9646DE310A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26520" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="steel" sheetId="2" r:id="rId3"/>
     <sheet name="CO2" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="70">
   <si>
     <t>Inflow</t>
   </si>
@@ -189,13 +188,7 @@
     <t>simple_CO2storage</t>
   </si>
   <si>
-    <t>waste heat</t>
-  </si>
-  <si>
     <t>heat</t>
-  </si>
-  <si>
-    <t>recovered heat</t>
   </si>
   <si>
     <t>CO2__emitted</t>
@@ -255,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -362,7 +355,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,21 +666,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -704,12 +697,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -718,12 +711,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +726,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -747,7 +740,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -761,7 +754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -775,7 +768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -789,7 +782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -803,9 +796,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -817,9 +810,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -828,35 +821,35 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -865,30 +858,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G31:G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -926,21 +919,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -952,10 +945,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -981,7 +974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1085,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1122,22 +1115,22 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1148,22 +1141,22 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1174,22 +1167,22 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1200,22 +1193,22 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1226,24 +1219,24 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="I13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1267,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1345,7 +1338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>47</v>
@@ -1420,12 +1413,12 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -1449,116 +1442,113 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -1579,32 +1569,6 @@
         <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1615,21 +1579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1673,18 +1637,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1694,20 +1658,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,29 +1682,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>

--- a/data/steel/factories/IBF_factory-LC.xlsx
+++ b/data/steel/factories/IBF_factory-LC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531379DE-0A9B-284B-883F-DE93673D7D4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
   <si>
     <t>Inflow</t>
   </si>
@@ -248,7 +243,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,7 +350,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,21 +661,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -697,7 +692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -711,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -726,7 +721,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -740,7 +735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -754,7 +749,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -768,7 +763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -782,7 +777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -796,7 +791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -810,7 +805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -824,7 +819,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -838,7 +833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -858,30 +853,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -919,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -948,7 +943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -974,7 +969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +995,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1234,7 +1229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -1260,7 +1255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1312,7 +1307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -1390,7 +1385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>55</v>
       </c>
@@ -1468,7 +1463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>55</v>
       </c>
@@ -1494,35 +1489,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1543,32 +1538,6 @@
         <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1579,21 +1548,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1615,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1637,7 +1606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +1617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1658,20 +1627,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -1704,7 +1673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>

--- a/data/steel/factories/IBF_factory-LC.xlsx
+++ b/data/steel/factories/IBF_factory-LC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531379DE-0A9B-284B-883F-DE93673D7D4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB937B-5BE5-2A4D-9D7F-7959714B6C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="21080" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="71">
   <si>
     <t>Inflow</t>
   </si>
@@ -186,9 +186,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>simple_heat</t>
   </si>
   <si>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>duplicate_CO2capture</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -708,10 +711,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
@@ -816,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,21 +833,21 @@
         <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,16 +922,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -940,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1110,19 +1113,19 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1136,19 +1139,19 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1162,19 +1165,19 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1188,19 +1191,19 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1214,24 +1217,24 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -1396,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>47</v>
@@ -1408,38 +1411,38 @@
         <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>49</v>
@@ -1448,76 +1451,76 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -1538,6 +1541,32 @@
         <v>44</v>
       </c>
       <c r="I25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1611,10 +1640,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1656,21 +1685,21 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/steel/factories/IBF_factory-LC.xlsx
+++ b/data/steel/factories/IBF_factory-LC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB937B-5BE5-2A4D-9D7F-7959714B6C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A87E5-F8D7-6F47-A3B6-9A377673C149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="21080" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16420" yWindow="820" windowWidth="21080" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="71">
   <si>
     <t>Inflow</t>
   </si>
@@ -668,7 +668,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,7 +860,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,30 +1545,9 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
